--- a/data/graficas/comentarios.xlsx
+++ b/data/graficas/comentarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\Hack a boss\proyecto_3\streamlit\proyecto_aviones\data\graficas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E96C6684-18EE-4327-A715-13298AC80A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDE6456-B77A-4827-8F3E-BFC246CF1E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22824" yWindow="0" windowWidth="23256" windowHeight="12480" xr2:uid="{51B9EFB6-D766-4972-B348-7F106348BEF1}"/>
   </bookViews>
@@ -63,19 +63,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFDCDCAA"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <i/>
@@ -105,16 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,7 +441,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -470,27 +458,27 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/graficas/comentarios.xlsx
+++ b/data/graficas/comentarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\Hack a boss\proyecto_3\streamlit\proyecto_aviones\data\graficas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDE6456-B77A-4827-8F3E-BFC246CF1E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB04B4E6-B825-460B-AEC1-E0BCEBC482E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22824" yWindow="0" windowWidth="23256" windowHeight="12480" xr2:uid="{51B9EFB6-D766-4972-B348-7F106348BEF1}"/>
   </bookViews>
@@ -38,15 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>grafica</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>comentario</t>
-  </si>
-  <si>
     <t>graficar_vuelos_totales_por_year</t>
   </si>
   <si>
@@ -57,6 +48,15 @@
 Esta cifra aumentó ligeramente para el año 2022 en 5155 vuelos, alcanzando un total de 556,976.
 Finalmente, para el año 2023, el número de vuelos registrados en diciembre aumentó aún más, llegando a 583,679.
 Pese a las presentes repercusiones socio-económicas del COVID-19, podemos observar una tendencia en el crecimiento de los vuelos internos en el mes de diciembre en Estados unidos. </t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Descripción</t>
   </si>
 </sst>
 </file>
@@ -441,31 +441,31 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/graficas/comentarios.xlsx
+++ b/data/graficas/comentarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\Hack a boss\proyecto_3\streamlit\proyecto_aviones\data\graficas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB04B4E6-B825-460B-AEC1-E0BCEBC482E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055FF5CD-CEB4-4992-A30F-7A9ECB1A623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22824" yWindow="0" windowWidth="23256" windowHeight="12480" xr2:uid="{51B9EFB6-D766-4972-B348-7F106348BEF1}"/>
   </bookViews>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>graficar_vuelos_totales_por_year</t>
-  </si>
-  <si>
-    <t>todos</t>
-  </si>
-  <si>
     <t xml:space="preserve">En este gráfico de barras podemos observar que, en el mes de diciembre del año 2021, se registraron un total de 551,821 vuelos internos en Estados Unidos. 
 Esta cifra aumentó ligeramente para el año 2022 en 5155 vuelos, alcanzando un total de 556,976.
 Finalmente, para el año 2023, el número de vuelos registrados en diciembre aumentó aún más, llegando a 583,679.
@@ -57,6 +51,12 @@
   </si>
   <si>
     <t>Descripción</t>
+  </si>
+  <si>
+    <t>Todos los años</t>
+  </si>
+  <si>
+    <t>Vuelo totales por año</t>
   </si>
 </sst>
 </file>
@@ -448,24 +448,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/graficas/comentarios.xlsx
+++ b/data/graficas/comentarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34670\Desktop\python\Hack a boss\proyecto_3\streamlit\proyecto_aviones\data\graficas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055FF5CD-CEB4-4992-A30F-7A9ECB1A623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F766D8F-2864-4888-8E7F-9A0726C9845B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22824" yWindow="0" windowWidth="23256" windowHeight="12480" xr2:uid="{51B9EFB6-D766-4972-B348-7F106348BEF1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t xml:space="preserve">En este gráfico de barras podemos observar que, en el mes de diciembre del año 2021, se registraron un total de 551,821 vuelos internos en Estados Unidos. 
 Esta cifra aumentó ligeramente para el año 2022 en 5155 vuelos, alcanzando un total de 556,976.
@@ -57,6 +57,26 @@
   </si>
   <si>
     <t>Vuelo totales por año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evolución del número de vuelos por compañía aérea </t>
+  </si>
+  <si>
+    <t>En este gráfico se presenta la evolución del número de vuelos en el mes de diciembre durante tres años consecutivos, desglosados por aerolíneas. Las líneas correspondientes a cada compañía muestran fluctuaciones entre aumentos y descensos en el número de vuelos a lo largo de los años.
+Entre las aerolíneas analizadas, solo seis experimentaron un crecimiento en su número de vuelos: Delta Airlines, Frontier Airlines, Hawaiian Airlines, Southwest Airlines, Spirit Airlines y United Airlines. Destacando entre ellas, Southwest Airlines se posiciona como líder indiscutible, con más de 97,000 vuelos en diciembre de 2021, superando los 116,000 en 2022 y casi alcanzando los 128,000 en 2023.
+Alaska Airlines, Allegiant Air, American Airlines y JetBlue Airways experimentaron un aumento de sus vuelos en 2022, pero un leve descenso en 2023. Pese al leve descenso, las cifras son mejores que para diciembre de 2021. 
+Endeavor Air, Envoy Air, Horizon Air, PSA Airlines, Republic Airways y SkyWest Airlines experimentaron una caída significante en 2022. Pese a un leve aumento en el número de vuelos, dejan a las 2021 como las mejores del trienio para las compañías aéreas.
+Por último, la compañía Mesa Airlines es la peor parada, ya que ha experimentado un descenso constante del número de vuelos en los 3 últimos años, siendo 7413 vuelos en diciembre de 2023.
+Como conclusión, podemos observar claramente una dominancia por SouthWest Airlines, con un segundo puesto para Delta Airlines, y muy cerca del tercer puesto para American Airlines y dejando en penúltimo lugar a Hawaiian Airlines y en último lugar a Horizon Air.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vuelos por aerolínea </t>
+  </si>
+  <si>
+    <t>En este gráfico de barras se muestran el número total de vuelos por compañías aéreas en el mes de diciembre.
+Se nota una variabilidad considerable en la cantidad de vuelos por aerolínea, con las grandes compañías; Southwest Airlines, American Airlines y Delta Air Lines, concentrando cientos de miles de vuelos registrados. Ocupando por contraparte Mesa Airlines, Hawaiian Airlines y Horizon Air los peores puestos de la lista.
+Tanto en 2021 como en 2022, las tres principales aerolíneas, en orden descendente, fueron Southwest Airlines, American Airlines y Delta Air Lines. Sin embargo, en 2023, Delta Air Lines avanzó un puesto en esta clasificación, colocándose en la segunda posición por delante de American Airlines.
+Para los años de 2023 y 2022, las tres aerolíneas con peores cifras, en orden descendente, fueron Mesa Airlines, Hawaiian Airlines y Horizon Air. Sin embargo, en 2021 los puestos, en orden descendente, fueron Allegiant Air, Horizon Air y Hawaiian Airlines.</t>
   </si>
 </sst>
 </file>
@@ -102,7 +122,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EBE801-A195-4426-9F57-95EF929F9BA0}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -469,16 +489,59 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
+      <c r="A6">
+        <v>2022</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
